--- a/02_data/mergeddata/merged_dt_rob.xlsx
+++ b/02_data/mergeddata/merged_dt_rob.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6054,6 +6054,975 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Hides et al. (2006)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Addington and Addington</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Clausen et al. (2014)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Stone et al. (2014)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Bergé et al. (2016)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Colizzi et al. (2016)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Hadden et al. (2016)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Seddon et al (2016)</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Bhattacharyya et al. (2020)</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Schoeler et al. (2016a)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Schoeler et al. (2016b)</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Ouellet-Plamondon et al. (2017)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Setién-Suero et al. (2019)</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Rentero et al. (2020)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Romer Thomsen et al (2018)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Emsley et al. (2019)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Marino et al. (2020)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/02_data/mergeddata/merged_dt_rob.xlsx
+++ b/02_data/mergeddata/merged_dt_rob.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,91 +360,99 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>source_df</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Review</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Primary</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Study type</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Q5</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Q6</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Q7</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>TotalStars</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Q8</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Study</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>done_by</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Kiburi (2021)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Scott et al</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>1</t>
@@ -452,12 +460,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -467,7 +475,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -477,31 +485,39 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Kiburi (2021)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Harley et al</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>1</t>
@@ -509,12 +525,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -529,36 +545,44 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Kiburi (2021)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Levy et al</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>1</t>
@@ -566,12 +590,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -581,7 +605,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,31 +615,39 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Kiburi (2021)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Schibart et al</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>1</t>
@@ -633,12 +665,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -648,31 +680,39 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Kiburi (2021)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Jones et al</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>1</t>
@@ -680,12 +720,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -700,36 +740,44 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Hosseini (2019)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Koning et al</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>1</t>
@@ -747,12 +795,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -762,31 +810,39 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>van der Steur (2020)</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Leadbeater et al</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>1</t>
@@ -799,7 +855,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -809,7 +865,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -819,31 +875,39 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>van der Steur (2020)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Karcher et al</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>1</t>
@@ -851,12 +915,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -866,7 +930,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -876,31 +940,39 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Marconi (2016)</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Miettunen et al</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>1</t>
@@ -913,17 +985,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -933,38 +1005,54 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Kiburi (2021)</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Mackie et al</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>1</t>
@@ -972,7 +1060,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -982,12 +1070,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -997,36 +1085,44 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Sorkhou (2021)</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Ferdinand et al</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>1</t>
@@ -1039,17 +1135,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1059,36 +1155,44 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Sorkhou (2021)</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Kuepper et al</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>1</t>
@@ -1101,17 +1205,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1121,36 +1225,44 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Sorkhou (2021)</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Bechtold et al</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>1</t>
@@ -1158,7 +1270,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1168,51 +1280,59 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Sorkhou (2021)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Rossler et al</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>1</t>
@@ -1225,56 +1345,64 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Godin (2022)</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Gage et al</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>1</t>
@@ -1282,22 +1410,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1307,36 +1435,44 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>van der Meer (2012)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Korver et al</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>1</t>
@@ -1354,12 +1490,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1369,36 +1505,44 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Henquet (2005)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>van Os et al</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>1</t>
@@ -1411,17 +1555,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1431,36 +1575,44 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Henquet (2005)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Fergusson et al</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>1</t>
@@ -1473,56 +1625,64 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Henquet (2005)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Stefanis et al</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>1</t>
@@ -1535,56 +1695,64 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Henquet (2005)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Henquet et al</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>1</t>
@@ -1597,17 +1765,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1617,36 +1785,44 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Hosseini (2019)</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Andreasson et al (1987)</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>1</t>
@@ -1654,7 +1830,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1664,12 +1840,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1679,36 +1855,44 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Marconi (2016)</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Tien et al</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>1</t>
@@ -1726,12 +1910,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1741,36 +1925,44 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Marconi (2016)</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Wiles et al</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>1</t>
@@ -1778,22 +1970,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1803,36 +1995,44 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Marconi (2016)</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>McGrath et al</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>1</t>
@@ -1840,7 +2040,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1850,12 +2050,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1865,36 +2065,44 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Marconi (2016)</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Zammit et al</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>1</t>
@@ -1902,7 +2110,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1912,51 +2120,59 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Moore (2007)</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Fergusson et al (2005)</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>1</t>
@@ -1969,56 +2185,64 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Semple (2005)</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Degenhardt et al</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>1</t>
@@ -2026,12 +2250,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2046,36 +2270,44 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Semple (2005)</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Farrell et al</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>1</t>
@@ -2083,12 +2315,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2103,36 +2335,44 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Semple (2005)</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Agosti et al</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>1</t>
@@ -2140,56 +2380,64 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Kiburi (2021)</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Ryan et al</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>1</t>
@@ -2197,12 +2445,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2212,7 +2460,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2222,31 +2470,39 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Kiburi (2021)</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Jones et al</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>1</t>
@@ -2254,12 +2510,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2274,39 +2530,47 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Kiburi (2021)</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Houston et al</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2316,7 +2580,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2331,36 +2595,44 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Semple (2005)</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Andreasson et al (1989)</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>1</t>
@@ -2368,22 +2640,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2393,36 +2665,44 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Sorkhou (2021)</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Mustonen et al</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>1</t>
@@ -2430,22 +2710,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2455,36 +2735,44 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Kiburi (2021)</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Manrique-Garcia et al</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>1</t>
@@ -2492,22 +2780,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2517,36 +2805,44 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Hosseini (2019)</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Zammit et al</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>1</t>
@@ -2554,22 +2850,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2579,36 +2875,44 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Hosseini (2019)</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Andreasson et al (1987)</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>1</t>
@@ -2616,22 +2920,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2641,36 +2945,44 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Oliver (2020)</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Riecher-Rossler et al</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>1</t>
@@ -2678,22 +2990,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2703,36 +3015,44 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Oliver (2020)</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Velthorst et al</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>1</t>
@@ -2740,22 +3060,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2765,36 +3085,44 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Oliver (2020)</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Bloemen et al</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>1</t>
@@ -2812,12 +3140,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2827,36 +3155,44 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Oliver (2020)</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Ziermans et al</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>1</t>
@@ -2889,36 +3225,44 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Oliver (2020)</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Bousman et al</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>1</t>
@@ -2926,22 +3270,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2951,36 +3295,44 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Oliver (2020)</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>De Vylder et al</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>1</t>
@@ -2988,22 +3340,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3013,36 +3365,44 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Oliver (2020)</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Labad et al</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>1</t>
@@ -3055,17 +3415,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3075,36 +3435,44 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Oliver (2020)</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Lavoie et al</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>1</t>
@@ -3117,17 +3485,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3137,36 +3505,44 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Oliver (2020)</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Nieman et al</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>1</t>
@@ -3184,12 +3560,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3199,36 +3575,44 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Oliver (2020)</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Berger et al</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>1</t>
@@ -3236,22 +3620,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3261,36 +3645,44 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Oliver (2020)</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Foecking et al</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>1</t>
@@ -3298,22 +3690,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3323,36 +3715,44 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Oliver (2020)</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Seidman et al</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>1</t>
@@ -3370,12 +3770,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3385,36 +3785,44 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>van der Meer (2012)</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Korver et al</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>1</t>
@@ -3432,12 +3840,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3447,36 +3855,44 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>Kraan (2012)</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Auther et al (2012)</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>1</t>
@@ -3494,12 +3910,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3509,36 +3925,44 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>Kraan (2012)</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Phillips et al</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>1</t>
@@ -3551,12 +3975,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3571,36 +3995,44 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Farris (2019)</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Auther et al (2015)</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>1</t>
@@ -3613,17 +4045,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3633,36 +4065,44 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Farris (2019)</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Buchy et al (2014)</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>1</t>
@@ -3680,12 +4120,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3695,36 +4135,44 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Farris (2019)</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Dragt et al (2012)</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>1</t>
@@ -3742,12 +4190,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3757,36 +4205,44 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Farris (2019)</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Dragt et al (2010)</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>1</t>
@@ -3804,12 +4260,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3819,36 +4275,44 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Farris (2019)</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Kristensen et al</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>1</t>
@@ -3866,12 +4330,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3881,36 +4345,44 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Farris (2019)</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>McHugh et al</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>1</t>
@@ -3928,12 +4400,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3943,36 +4415,44 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Farris (2019)</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Valmaggia et al</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>1</t>
@@ -3985,17 +4465,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4005,39 +4485,47 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Semple (2005)</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Miller et al</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>Case-control</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4052,51 +4540,59 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>Carney (2017)</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Gill et al.</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>1</t>
@@ -4109,7 +4605,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4124,36 +4620,44 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>Carney (2017)</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Mizrahi et al</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>1</t>
@@ -4161,12 +4665,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4181,36 +4685,44 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>Carney (2017)</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Nieman et al</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>1</t>
@@ -4218,12 +4730,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -4238,36 +4750,44 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66">
+        <v>7</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>Carney (2017)</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>vanTricht et al</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>1</t>
@@ -4275,12 +4795,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4295,36 +4815,44 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67">
+        <v>7</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>Farris (2019)</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Machielsen et al</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>1</t>
@@ -4332,12 +4860,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4352,36 +4880,44 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68">
+        <v>7</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>Carney (2017)</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Bugra et al</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>1</t>
@@ -4394,7 +4930,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4409,44 +4945,52 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Jockers-Scherubl et al</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>Case-control</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4456,59 +5000,67 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Rentzsch et al 2011</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>Case-control</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4518,51 +5070,59 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Cassidy et al</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>Case-control</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>1</t>
@@ -4580,59 +5140,67 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Rentzsch et al 2016</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Case-control</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4642,51 +5210,59 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73">
+        <v>9</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>Bersani et al</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>1</t>
@@ -4699,7 +5275,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4714,54 +5290,62 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74">
+        <v>9</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Potvin et al</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4771,36 +5355,44 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75">
+        <v>9</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Sevy et al</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>1</t>
@@ -4808,12 +5400,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4828,58 +5420,74 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Rabin et al 2009 (TOBACCO EXPOSURE NOT THC)</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Schnell et al</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>1</t>
@@ -4887,12 +5495,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4907,36 +5515,44 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78">
+        <v>9</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>DeRosse et al</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>1</t>
@@ -4944,7 +5560,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4954,7 +5570,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4964,36 +5580,44 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79">
+        <v>9</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Ho et al</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>1</t>
@@ -5001,12 +5625,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -5021,36 +5645,44 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80">
+        <v>9</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>van Dijk et al</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>1</t>
@@ -5063,7 +5695,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -5078,36 +5710,44 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81">
+        <v>9</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>Bourque et al</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>1</t>
@@ -5115,7 +5755,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5125,7 +5765,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5135,36 +5775,44 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82">
+        <v>9</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Rabin et al 2013</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>1</t>
@@ -5177,7 +5825,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5192,36 +5840,44 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83">
+        <v>9</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Cassidy et al</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>1</t>
@@ -5229,12 +5885,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -5249,39 +5905,47 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84">
+        <v>9</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Goodman et al</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -5291,7 +5955,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5306,36 +5970,44 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85">
+        <v>9</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Helle et al</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>1</t>
@@ -5343,12 +6015,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -5363,36 +6035,44 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86">
+        <v>9</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>Solovij et al</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>1</t>
@@ -5400,7 +6080,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5410,7 +6090,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5420,26 +6100,34 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
     </row>
     <row r="87">
-      <c r="B87" t="inlineStr">
+      <c r="A87">
+        <v>10</v>
+      </c>
+      <c r="C87" t="inlineStr">
         <is>
           <t>Caspari(1999)</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>*</t>
@@ -5450,7 +6138,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>*</t>
         </is>
@@ -5462,26 +6150,34 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>*</t>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Carolina</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="inlineStr">
+      <c r="A88">
+        <v>10</v>
+      </c>
+      <c r="C88" t="inlineStr">
         <is>
           <t>Faridi(2012)</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>*</t>
@@ -5492,38 +6188,46 @@
           <t>*</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>*</t>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Carolina</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="inlineStr">
+      <c r="A89">
+        <v>10</v>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>González-Pinto(2009)</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>*</t>
@@ -5534,7 +6238,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>*</t>
         </is>
@@ -5546,26 +6250,34 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>*</t>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Carolina</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="inlineStr">
+      <c r="A90">
+        <v>10</v>
+      </c>
+      <c r="C90" t="inlineStr">
         <is>
           <t>Grech(2005)</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>*</t>
@@ -5581,7 +6293,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>*</t>
         </is>
@@ -5593,26 +6305,34 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>*</t>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Carolina</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="inlineStr">
+      <c r="A91">
+        <v>10</v>
+      </c>
+      <c r="C91" t="inlineStr">
         <is>
           <t>Linszen(1994)</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>*</t>
@@ -5623,7 +6343,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>*</t>
         </is>
@@ -5635,26 +6355,34 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>*</t>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Carolina</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="inlineStr">
+      <c r="A92">
+        <v>10</v>
+      </c>
+      <c r="C92" t="inlineStr">
         <is>
           <t>Maremmani(2004)</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>*</t>
@@ -5665,39 +6393,47 @@
           <t>*</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
         <is>
           <t>4?</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="M92" t="inlineStr">
         <is>
           <t>100% patients (cross-sectional)</t>
         </is>
       </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Carolina</t>
+        </is>
+      </c>
     </row>
     <row r="93">
-      <c r="B93" t="inlineStr">
+      <c r="A93">
+        <v>10</v>
+      </c>
+      <c r="C93" t="inlineStr">
         <is>
           <t>Martinez-Arevalo(1994)</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>*</t>
         </is>
@@ -5719,26 +6455,34 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>*</t>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Carolina</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="inlineStr">
+      <c r="A94">
+        <v>10</v>
+      </c>
+      <c r="C94" t="inlineStr">
         <is>
           <t>Negrete(1986)</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>*</t>
@@ -5749,7 +6493,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>*</t>
         </is>
@@ -5759,35 +6503,51 @@
           <t>*</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Carolina</t>
+        </is>
+      </c>
     </row>
     <row r="95">
-      <c r="B95" t="inlineStr">
+      <c r="A95">
+        <v>10</v>
+      </c>
+      <c r="C95" t="inlineStr">
         <is>
           <t>Salyers and Mueser(2001)</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr">
+      <c r="N95" t="inlineStr">
         <is>
           <t>excluded</t>
         </is>
       </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Carolina</t>
+        </is>
+      </c>
     </row>
     <row r="96">
-      <c r="B96" t="inlineStr">
+      <c r="A96">
+        <v>10</v>
+      </c>
+      <c r="C96" t="inlineStr">
         <is>
           <t>San(2013)</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>*</t>
@@ -5803,7 +6563,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>*</t>
         </is>
@@ -5815,26 +6575,34 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>*</t>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Carolina</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="inlineStr">
+      <c r="A97">
+        <v>10</v>
+      </c>
+      <c r="C97" t="inlineStr">
         <is>
           <t>Sara(2014)</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>*</t>
@@ -5867,26 +6635,34 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>*</t>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Carolina</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="inlineStr">
+      <c r="A98">
+        <v>10</v>
+      </c>
+      <c r="C98" t="inlineStr">
         <is>
           <t>Sorbara(2003)</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>*</t>
@@ -5897,7 +6673,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>*</t>
         </is>
@@ -5914,32 +6690,40 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>*</t>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Carolina</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="inlineStr">
+      <c r="A99">
+        <v>10</v>
+      </c>
+      <c r="C99" t="inlineStr">
         <is>
           <t>Stirling(2005)</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>*</t>
         </is>
@@ -5956,21 +6740,29 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Carolina</t>
+        </is>
+      </c>
     </row>
     <row r="100">
-      <c r="B100" t="inlineStr">
+      <c r="A100">
+        <v>10</v>
+      </c>
+      <c r="C100" t="inlineStr">
         <is>
           <t>Van der Meer(2015)</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>*</t>
@@ -5981,7 +6773,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>*</t>
         </is>
@@ -5998,26 +6790,34 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>*</t>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Carolina</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="inlineStr">
+      <c r="A101">
+        <v>10</v>
+      </c>
+      <c r="C101" t="inlineStr">
         <is>
           <t>Wade(2006)</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>*</t>
@@ -6028,7 +6828,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>*</t>
         </is>
@@ -6045,31 +6845,39 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>*</t>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Carolina</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="inlineStr">
+      <c r="A102">
+        <v>11</v>
+      </c>
+      <c r="C102" t="inlineStr">
         <is>
           <t>Hides et al. (2006)</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E102" t="inlineStr">
         <is>
           <t>1</t>
@@ -6087,12 +6895,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6102,31 +6910,39 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="inlineStr">
+      <c r="A103">
+        <v>11</v>
+      </c>
+      <c r="C103" t="inlineStr">
         <is>
           <t>Addington and Addington</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>1</t>
@@ -6139,17 +6955,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6159,31 +6975,39 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="inlineStr">
+      <c r="A104">
+        <v>11</v>
+      </c>
+      <c r="C104" t="inlineStr">
         <is>
           <t>Clausen et al. (2014)</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>1</t>
@@ -6196,17 +7020,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6216,31 +7040,39 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="inlineStr">
+      <c r="A105">
+        <v>11</v>
+      </c>
+      <c r="C105" t="inlineStr">
         <is>
           <t>Stone et al. (2014)</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>1</t>
@@ -6253,7 +7085,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -6263,7 +7095,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6273,31 +7105,39 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="inlineStr">
+      <c r="A106">
+        <v>11</v>
+      </c>
+      <c r="C106" t="inlineStr">
         <is>
           <t>Bergé et al. (2016)</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>1</t>
@@ -6315,12 +7155,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -6330,31 +7170,39 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="inlineStr">
+      <c r="A107">
+        <v>11</v>
+      </c>
+      <c r="C107" t="inlineStr">
         <is>
           <t>Colizzi et al. (2016)</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>1</t>
@@ -6372,12 +7220,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6387,31 +7235,39 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="inlineStr">
+      <c r="A108">
+        <v>11</v>
+      </c>
+      <c r="C108" t="inlineStr">
         <is>
           <t>Hadden et al. (2016)</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>1</t>
@@ -6429,12 +7285,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6444,31 +7300,39 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="inlineStr">
+      <c r="A109">
+        <v>11</v>
+      </c>
+      <c r="C109" t="inlineStr">
         <is>
           <t>Seddon et al (2016)</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>1</t>
@@ -6486,12 +7350,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -6501,31 +7365,39 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="inlineStr">
+      <c r="A110">
+        <v>11</v>
+      </c>
+      <c r="C110" t="inlineStr">
         <is>
           <t>Bhattacharyya et al. (2020)</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>1</t>
@@ -6543,12 +7415,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -6558,31 +7430,39 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="inlineStr">
+      <c r="A111">
+        <v>11</v>
+      </c>
+      <c r="C111" t="inlineStr">
         <is>
           <t>Schoeler et al. (2016a)</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>1</t>
@@ -6600,12 +7480,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -6615,31 +7495,39 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="inlineStr">
+      <c r="A112">
+        <v>11</v>
+      </c>
+      <c r="C112" t="inlineStr">
         <is>
           <t>Schoeler et al. (2016b)</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>1</t>
@@ -6657,12 +7545,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -6672,31 +7560,39 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="inlineStr">
+      <c r="A113">
+        <v>11</v>
+      </c>
+      <c r="C113" t="inlineStr">
         <is>
           <t>Ouellet-Plamondon et al. (2017)</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>1</t>
@@ -6714,12 +7610,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -6729,31 +7625,39 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="inlineStr">
+      <c r="A114">
+        <v>11</v>
+      </c>
+      <c r="C114" t="inlineStr">
         <is>
           <t>Setién-Suero et al. (2019)</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>1</t>
@@ -6761,22 +7665,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -6786,31 +7690,39 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="inlineStr">
+      <c r="A115">
+        <v>11</v>
+      </c>
+      <c r="C115" t="inlineStr">
         <is>
           <t>Rentero et al. (2020)</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>1</t>
@@ -6823,17 +7735,17 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -6843,31 +7755,39 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="inlineStr">
+      <c r="A116">
+        <v>11</v>
+      </c>
+      <c r="C116" t="inlineStr">
         <is>
           <t>Romer Thomsen et al (2018)</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>1</t>
@@ -6875,22 +7795,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6900,31 +7820,39 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="inlineStr">
+      <c r="A117">
+        <v>11</v>
+      </c>
+      <c r="C117" t="inlineStr">
         <is>
           <t>Emsley et al. (2019)</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E117" t="inlineStr">
         <is>
           <t>1</t>
@@ -6942,12 +7870,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6957,31 +7885,39 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="inlineStr">
+      <c r="A118">
+        <v>11</v>
+      </c>
+      <c r="C118" t="inlineStr">
         <is>
           <t>Marino et al. (2020)</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>1</t>
@@ -6994,17 +7930,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -7014,12 +7950,22 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
         </is>
       </c>
     </row>

--- a/02_data/mergeddata/merged_dt_rob.xlsx
+++ b/02_data/mergeddata/merged_dt_rob.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -433,6 +433,11 @@
           <t>done_by</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Primary study</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -7966,6 +7971,201 @@
       <c r="O118" t="inlineStr">
         <is>
           <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>12</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Johanna</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>Albertella(2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>12</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Johanna</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>Marwaha(2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>12</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Johanna</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>Degenhardt(2007)</t>
         </is>
       </c>
     </row>

--- a/02_data/mergeddata/merged_dt_rob.xlsx
+++ b/02_data/mergeddata/merged_dt_rob.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P121"/>
+  <dimension ref="A1:O130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -433,15 +433,12 @@
           <t>done_by</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Primary study</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_CS</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -505,8 +502,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_CS</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -570,8 +569,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_CS</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -635,8 +636,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_CS</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -700,8 +703,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>1</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_CS</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -765,8 +770,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>1</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_CS</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -830,8 +837,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>1</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_CS</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -895,8 +904,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>1</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_CS</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -960,8 +971,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>1</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_CS</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1025,8 +1038,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>1</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_CS</t>
+        </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1040,8 +1055,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <v>2</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_Cohort</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1110,8 +1127,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13">
-        <v>2</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_Cohort</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1180,8 +1199,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14">
-        <v>2</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_Cohort</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1250,8 +1271,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15">
-        <v>2</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_Cohort</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1320,8 +1343,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16">
-        <v>2</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_Cohort</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1390,8 +1415,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17">
-        <v>2</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_Cohort</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1460,8 +1487,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18">
-        <v>2</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_Cohort</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1530,8 +1559,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19">
-        <v>2</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_Cohort</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1600,8 +1631,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20">
-        <v>2</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_Cohort</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1670,8 +1703,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21">
-        <v>2</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_Cohort</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1740,8 +1775,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22">
-        <v>2</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_Cohort</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1810,8 +1847,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23">
-        <v>2</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_Cohort</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1880,8 +1919,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24">
-        <v>2</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_Cohort</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1950,8 +1991,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25">
-        <v>2</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_Cohort</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2020,8 +2063,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26">
-        <v>2</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_Cohort</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2090,8 +2135,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27">
-        <v>2</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_Cohort</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2160,8 +2207,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28">
-        <v>2</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Rob_HP_S_R_Cohort</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2230,8 +2279,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29">
-        <v>3</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Rob_HP_D_R_CS</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2295,8 +2346,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30">
-        <v>3</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Rob_HP_D_R_CS</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2360,8 +2413,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31">
-        <v>3</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rob_HP_D_R_CS</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2425,8 +2480,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32">
-        <v>3</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Rob_HP_D_R_CS</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2490,8 +2547,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33">
-        <v>3</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Rob_HP_D_R_CS</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2555,8 +2614,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34">
-        <v>3</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Rob_HP_D_R_CS</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2620,8 +2681,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35">
-        <v>4</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Rob_HP_D_R_Cohort</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2690,8 +2753,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36">
-        <v>4</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Rob_HP_D_R_Cohort</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2760,8 +2825,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37">
-        <v>4</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Rob_HP_D_R_Cohort</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2830,8 +2897,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38">
-        <v>4</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rob_HP_D_R_Cohort</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2900,8 +2969,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39">
-        <v>4</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Rob_HP_D_R_Cohort</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2970,8 +3041,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40">
-        <v>5</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3040,8 +3113,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41">
-        <v>5</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3110,8 +3185,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42">
-        <v>5</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3180,8 +3257,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43">
-        <v>5</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3250,8 +3329,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44">
-        <v>5</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3320,8 +3401,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45">
-        <v>5</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3390,8 +3473,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46">
-        <v>5</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3460,8 +3545,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47">
-        <v>5</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3530,8 +3617,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48">
-        <v>5</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3600,8 +3689,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49">
-        <v>5</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3670,8 +3761,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50">
-        <v>5</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3740,8 +3833,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51">
-        <v>5</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3810,8 +3905,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52">
-        <v>5</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3880,8 +3977,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53">
-        <v>5</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3950,8 +4049,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54">
-        <v>5</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4020,8 +4121,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55">
-        <v>5</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4090,8 +4193,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56">
-        <v>5</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4160,8 +4265,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57">
-        <v>5</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4230,8 +4337,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58">
-        <v>5</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4300,8 +4409,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59">
-        <v>5</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4370,8 +4481,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60">
-        <v>5</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4440,8 +4553,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61">
-        <v>5</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_Cohort</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4510,8 +4625,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62">
-        <v>6</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Rob_CHR_T_R_CC</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4580,8 +4697,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63">
-        <v>7</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Rob_CHR_S_R_CS</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4645,8 +4764,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64">
-        <v>7</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Rob_CHR_S_R_CS</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4710,8 +4831,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65">
-        <v>7</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Rob_CHR_S_R_CS</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4775,8 +4898,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66">
-        <v>7</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Rob_CHR_S_R_CS</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4840,8 +4965,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67">
-        <v>7</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Rob_CHR_S_R_CS</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4905,8 +5032,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68">
-        <v>7</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Rob_CHR_S_R_CS</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4970,3202 +5099,3946 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69">
-        <v>8</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Rob_CHR_S_R_Cohort</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>Farris (2019)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Auther et al (2015)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Rob_CHR_S_R_Cohort</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Farris (2019)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>McHugh et al</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Rob_CHR_S_R_Cohort</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Farris (2019)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Dragt et al (2012)</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Rob_CHR_S_R_Cohort</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Farris (2019)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Dragt et al (2010)</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Rob_CHR_S_R_Cohort</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Farris (2019)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Buchy et al (2014)</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Rob_CHR_S_R_Cohort</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Kraan (2012)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Corcoran et al</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Rob_CHR_S_R_Cohort</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Kraan (2012)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Auther et al (2012)</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Rob_P_R_CC</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Jockers-Scherubl et al</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>Case-control</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70">
-        <v>8</v>
-      </c>
-      <c r="B70" t="inlineStr">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Rob_P_R_CC</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Rentzsch et al 2011</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>Case-control</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71">
-        <v>8</v>
-      </c>
-      <c r="B71" t="inlineStr">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Rob_P_R_CC</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Cassidy et al</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Case-control</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72">
-        <v>8</v>
-      </c>
-      <c r="B72" t="inlineStr">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Rob_P_R_CC</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Rentzsch et al 2016</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Case-control</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73">
-        <v>9</v>
-      </c>
-      <c r="B73" t="inlineStr">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Rob_P_R_CS</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>Bersani et al</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74">
-        <v>9</v>
-      </c>
-      <c r="B74" t="inlineStr">
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Rob_P_R_CS</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>Potvin et al</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75">
-        <v>9</v>
-      </c>
-      <c r="B75" t="inlineStr">
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Rob_P_R_CS</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Sevy et al</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76">
-        <v>9</v>
-      </c>
-      <c r="B76" t="inlineStr">
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Rob_P_R_CS</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Rabin et al 2009 (TOBACCO EXPOSURE NOT THC)</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77">
-        <v>9</v>
-      </c>
-      <c r="B77" t="inlineStr">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Rob_P_R_CS</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Schnell et al</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78">
-        <v>9</v>
-      </c>
-      <c r="B78" t="inlineStr">
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Rob_P_R_CS</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>DeRosse et al</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79">
-        <v>9</v>
-      </c>
-      <c r="B79" t="inlineStr">
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Rob_P_R_CS</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>Ho et al</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80">
-        <v>9</v>
-      </c>
-      <c r="B80" t="inlineStr">
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Rob_P_R_CS</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>van Dijk et al</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81">
-        <v>9</v>
-      </c>
-      <c r="B81" t="inlineStr">
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Rob_P_R_CS</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Bourque et al</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82">
-        <v>9</v>
-      </c>
-      <c r="B82" t="inlineStr">
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Rob_P_R_CS</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Rabin et al 2013</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83">
-        <v>9</v>
-      </c>
-      <c r="B83" t="inlineStr">
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Rob_P_R_CS</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Cassidy et al</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84">
-        <v>9</v>
-      </c>
-      <c r="B84" t="inlineStr">
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Rob_P_R_CS</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>Goodman et al</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85">
-        <v>9</v>
-      </c>
-      <c r="B85" t="inlineStr">
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Rob_P_R_CS</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Helle et al</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86">
-        <v>9</v>
-      </c>
-      <c r="B86" t="inlineStr">
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Rob_P_R_CS</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>Sabe (2020)</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>Solovij et al</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87">
-        <v>10</v>
-      </c>
-      <c r="C87" t="inlineStr">
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Rob_P_C</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
         <is>
           <t>Caspari(1999)</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
+      <c r="M94" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr">
+      <c r="O94" t="inlineStr">
         <is>
           <t>Carolina</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88">
-        <v>10</v>
-      </c>
-      <c r="C88" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Rob_P_C</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
         <is>
           <t>Faridi(2012)</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L95" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
+      <c r="M95" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr">
+      <c r="O95" t="inlineStr">
         <is>
           <t>Carolina</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89">
-        <v>10</v>
-      </c>
-      <c r="C89" t="inlineStr">
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Rob_P_C</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
         <is>
           <t>González-Pinto(2009)</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L96" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
+      <c r="M96" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="O96" t="inlineStr">
         <is>
           <t>Carolina</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90">
-        <v>10</v>
-      </c>
-      <c r="C90" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Rob_P_C</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
         <is>
           <t>Grech(2005)</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L97" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
+      <c r="M97" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr">
+      <c r="O97" t="inlineStr">
         <is>
           <t>Carolina</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91">
-        <v>10</v>
-      </c>
-      <c r="C91" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Rob_P_C</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
         <is>
           <t>Linszen(1994)</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="L98" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr">
+      <c r="M98" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="O91" t="inlineStr">
+      <c r="O98" t="inlineStr">
         <is>
           <t>Carolina</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92">
-        <v>10</v>
-      </c>
-      <c r="C92" t="inlineStr">
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Rob_P_C</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
         <is>
           <t>Maremmani(2004)</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L99" t="inlineStr">
         <is>
           <t>4?</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
+      <c r="M99" t="inlineStr">
         <is>
           <t>100% patients (cross-sectional)</t>
         </is>
       </c>
-      <c r="O92" t="inlineStr">
+      <c r="O99" t="inlineStr">
         <is>
           <t>Carolina</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93">
-        <v>10</v>
-      </c>
-      <c r="C93" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Rob_P_C</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
         <is>
           <t>Martinez-Arevalo(1994)</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="L100" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
+      <c r="M100" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="O93" t="inlineStr">
+      <c r="O100" t="inlineStr">
         <is>
           <t>Carolina</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94">
-        <v>10</v>
-      </c>
-      <c r="C94" t="inlineStr">
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Rob_P_C</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
         <is>
           <t>Negrete(1986)</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="L101" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O94" t="inlineStr">
+      <c r="O101" t="inlineStr">
         <is>
           <t>Carolina</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95">
-        <v>10</v>
-      </c>
-      <c r="C95" t="inlineStr">
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Rob_P_C</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
         <is>
           <t>Salyers and Mueser(2001)</t>
         </is>
       </c>
-      <c r="N95" t="inlineStr">
+      <c r="N102" t="inlineStr">
         <is>
           <t>excluded</t>
         </is>
       </c>
-      <c r="O95" t="inlineStr">
+      <c r="O102" t="inlineStr">
         <is>
           <t>Carolina</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96">
-        <v>10</v>
-      </c>
-      <c r="C96" t="inlineStr">
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Rob_P_C</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
         <is>
           <t>San(2013)</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="L103" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr">
+      <c r="M103" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="O96" t="inlineStr">
+      <c r="O103" t="inlineStr">
         <is>
           <t>Carolina</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97">
-        <v>10</v>
-      </c>
-      <c r="C97" t="inlineStr">
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Rob_P_C</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
         <is>
           <t>Sara(2014)</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="L104" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
+      <c r="M104" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="O104" t="inlineStr">
         <is>
           <t>Carolina</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98">
-        <v>10</v>
-      </c>
-      <c r="C98" t="inlineStr">
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Rob_P_C</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
         <is>
           <t>Sorbara(2003)</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="L105" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr">
+      <c r="M105" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="O98" t="inlineStr">
+      <c r="O105" t="inlineStr">
         <is>
           <t>Carolina</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99">
-        <v>10</v>
-      </c>
-      <c r="C99" t="inlineStr">
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Rob_P_C</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
         <is>
           <t>Stirling(2005)</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="L106" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr">
+      <c r="O106" t="inlineStr">
         <is>
           <t>Carolina</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100">
-        <v>10</v>
-      </c>
-      <c r="C100" t="inlineStr">
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Rob_P_C</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
         <is>
           <t>Van der Meer(2015)</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="L107" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
+      <c r="M107" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr">
+      <c r="O107" t="inlineStr">
         <is>
           <t>Carolina</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101">
-        <v>10</v>
-      </c>
-      <c r="C101" t="inlineStr">
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Rob_P_C</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
         <is>
           <t>Wade(2006)</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="L108" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr">
+      <c r="M108" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="O101" t="inlineStr">
+      <c r="O108" t="inlineStr">
         <is>
           <t>Carolina</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102">
-        <v>11</v>
-      </c>
-      <c r="C102" t="inlineStr">
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Rob_P_R_C</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
         <is>
           <t>Hides et al. (2006)</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103">
-        <v>11</v>
-      </c>
-      <c r="C103" t="inlineStr">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Rob_P_R_C</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
         <is>
           <t>Addington and Addington</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104">
-        <v>11</v>
-      </c>
-      <c r="C104" t="inlineStr">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Rob_P_R_C</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
         <is>
           <t>Clausen et al. (2014)</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105">
-        <v>11</v>
-      </c>
-      <c r="C105" t="inlineStr">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Rob_P_R_C</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
         <is>
           <t>Stone et al. (2014)</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106">
-        <v>11</v>
-      </c>
-      <c r="C106" t="inlineStr">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Rob_P_R_C</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
         <is>
           <t>Bergé et al. (2016)</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107">
-        <v>11</v>
-      </c>
-      <c r="C107" t="inlineStr">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Rob_P_R_C</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
         <is>
           <t>Colizzi et al. (2016)</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108">
-        <v>11</v>
-      </c>
-      <c r="C108" t="inlineStr">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Rob_P_R_C</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
         <is>
           <t>Hadden et al. (2016)</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109">
-        <v>11</v>
-      </c>
-      <c r="C109" t="inlineStr">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Rob_P_R_C</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
         <is>
           <t>Seddon et al (2016)</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110">
-        <v>11</v>
-      </c>
-      <c r="C110" t="inlineStr">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Rob_P_R_C</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
         <is>
           <t>Bhattacharyya et al. (2020)</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111">
-        <v>11</v>
-      </c>
-      <c r="C111" t="inlineStr">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Rob_P_R_C</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
         <is>
           <t>Schoeler et al. (2016a)</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112">
-        <v>11</v>
-      </c>
-      <c r="C112" t="inlineStr">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Rob_P_R_C</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
         <is>
           <t>Schoeler et al. (2016b)</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113">
-        <v>11</v>
-      </c>
-      <c r="C113" t="inlineStr">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Rob_P_R_C</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
         <is>
           <t>Ouellet-Plamondon et al. (2017)</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114">
-        <v>11</v>
-      </c>
-      <c r="C114" t="inlineStr">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Rob_P_R_C</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
         <is>
           <t>Setién-Suero et al. (2019)</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115">
-        <v>11</v>
-      </c>
-      <c r="C115" t="inlineStr">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Rob_P_R_C</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
         <is>
           <t>Rentero et al. (2020)</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116">
-        <v>11</v>
-      </c>
-      <c r="C116" t="inlineStr">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Rob_P_R_C</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
         <is>
           <t>Romer Thomsen et al (2018)</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117">
-        <v>11</v>
-      </c>
-      <c r="C117" t="inlineStr">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Rob_P_R_C</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
         <is>
           <t>Emsley et al. (2019)</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118">
-        <v>11</v>
-      </c>
-      <c r="C118" t="inlineStr">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Rob_P_R_C</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
         <is>
           <t>Marino et al. (2020)</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>Riccardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119">
-        <v>12</v>
-      </c>
-      <c r="D119" t="inlineStr">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>Riccardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Rob_HPP_J</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Albertella(2018)</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
         <is>
           <t>longitudinal prospective</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O119" t="inlineStr">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
         <is>
           <t>Johanna</t>
         </is>
       </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>Albertella(2018)</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120">
-        <v>12</v>
-      </c>
-      <c r="D120" t="inlineStr">
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Rob_HPP_J</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Marwaha(2018)</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
         <is>
           <t>longitudinal prospective</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
         <is>
           <t>Johanna</t>
         </is>
       </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>Marwaha(2018)</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121">
-        <v>12</v>
-      </c>
-      <c r="D121" t="inlineStr">
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Rob_HPP_J</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Degenhardt(2007)</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
         <is>
           <t>longitudinal prospective</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
         <is>
           <t>Johanna</t>
         </is>
       </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>Degenhardt(2007)</t>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Rob_HPP_J</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Addington(2017)</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>Johanna</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Rob_HPP_J</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Atkinson(2017)</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>Johanna</t>
         </is>
       </c>
     </row>

--- a/02_data/mergeddata/merged_dt_rob.xlsx
+++ b/02_data/mergeddata/merged_dt_rob.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O130"/>
+  <dimension ref="A1:O140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9042,6 +9042,676 @@
         </is>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Rob_HPP_J</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Barrowclough(2015)</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>Johanna</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Rob_HPP_J</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Barrowclough(2013)</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>Johanna</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Rob_HPP_J</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Fond(2019)</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>Johanna</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Rob_HPP_J</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Foti(2010)</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>Johanna</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Rob_HPP_J</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Baeza(2009)</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>Johanna</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Rob_HPP_J</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Buchy(2015)</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>Johanna</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Rob_HPP_J</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Zammit(2011)</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>Johanna</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Rob_HPP_J</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Arseneault(2002)</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>Johanna</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Rob_HPP_J</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Bechtold(2016)</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>Johanna</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Rob_HPP_J</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Dragt(2011)</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>Johanna</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
